--- a/Revisi Rapih.xlsx
+++ b/Revisi Rapih.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="209">
   <si>
     <t>tambah penjualan, saat klik back, total direset</t>
   </si>
@@ -73,6 +73,9 @@
     <t>ukuran tabel disesuaikan/dirapikan</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>di web ada menu aktivitas penjualan dan pengiriman (timeline)</t>
   </si>
   <si>
@@ -523,9 +526,6 @@
     <t>debt collector, tagihan, jika bayar retur tidak dihitung di tagihan_2</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>debt collector, tagihan_2 (pembayaran tagihan), portrait</t>
   </si>
   <si>
@@ -616,7 +616,7 @@
     <t>ppn adalah jumlah setelah diskon</t>
   </si>
   <si>
-    <t>retur beli detail, ada 2 kolom tambahan, jumlah retur dsn jumlah keluar</t>
+    <t>retur beli detail, ada 2 kolom tambahan, jumlah retur dan jumlah keluar</t>
   </si>
   <si>
     <t>penjualan, mobile, view penjualan utk 30 hari tarakhir</t>
@@ -1262,7 +1262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,13 +1270,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1603,7 +1606,7 @@
   <dimension ref="A3:F258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103:C103"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="60" customHeight="1" outlineLevelCol="5"/>
@@ -1612,14 +1615,15 @@
     <col min="2" max="2" width="4.6" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.3" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="5.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="5.33333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.16666666666667" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1627,7 +1631,7 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1635,7 +1639,7 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1643,7 +1647,7 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1651,7 +1655,7 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1659,7 +1663,7 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1672,7 +1676,7 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1680,7 +1684,7 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1688,7 +1692,7 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1696,7 +1700,7 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1704,7 +1708,7 @@
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1712,7 +1716,7 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1720,7 +1724,7 @@
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1738,638 +1742,653 @@
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="2:2">
+      <c r="E20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:6">
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" customHeight="1" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="2:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:6">
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:1">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:1">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:3">
       <c r="C35" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:3">
       <c r="C36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:1">
-      <c r="A38" s="2" t="s">
-        <v>31</v>
+      <c r="A38" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:3">
       <c r="C41" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:1">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:3">
       <c r="C46" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:3">
       <c r="C47" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="2:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="2:5">
       <c r="B49" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:1">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:3">
       <c r="C54" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="3:3">
       <c r="C55" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:2">
       <c r="B59" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="3:3">
       <c r="C60" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="3:3">
       <c r="C61" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="3:3">
       <c r="C62" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:1">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="3:3">
       <c r="C67" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="3:3">
       <c r="C68" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="3:3">
       <c r="C69" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:1">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:2">
       <c r="B72" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="3:3">
       <c r="C73" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="3:3">
       <c r="C74" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:3">
-      <c r="C76" s="5" t="s">
-        <v>49</v>
+      <c r="C76" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="3:3">
-      <c r="C77" s="5" t="s">
-        <v>50</v>
+      <c r="C77" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:2">
       <c r="B78" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="2:2">
       <c r="B79" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="2:5">
       <c r="B80" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E80" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="2:5">
       <c r="B81" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E81" t="s">
+        <v>55</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:1">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:5">
       <c r="B84" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E84" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="2:5">
       <c r="B85" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E85" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:5">
       <c r="B86" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E86" t="s">
+        <v>59</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:5">
       <c r="B87" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E87" t="s">
+        <v>60</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="2:5">
       <c r="B88" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E88" t="s">
+        <v>61</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="2:5">
       <c r="B89" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E89" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:5">
       <c r="B90" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E90" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="2:5">
       <c r="B91" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="2:5">
       <c r="B92" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E92" t="s">
+        <v>65</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:5">
       <c r="B93" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E93" t="s">
+        <v>66</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="2:2">
       <c r="B94" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="2:2">
       <c r="B95" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="3:3">
       <c r="C96" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="3:3">
       <c r="C97" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="2:5">
       <c r="B98" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E98" t="s">
+        <v>71</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="2:5">
       <c r="B99" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E99" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="2:5">
       <c r="B100" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E100" t="s">
+        <v>73</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="2:5">
       <c r="B101" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E101" t="s">
+        <v>74</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="2:5">
       <c r="B102" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E102" t="s">
+        <v>75</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="2:5">
       <c r="B103" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E103" t="s">
+        <v>76</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:5">
       <c r="B104" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E104" t="s">
+        <v>77</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="2:5">
       <c r="B105" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E105" t="s">
+        <v>78</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="2:5">
       <c r="B106" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E106" t="s">
+        <v>79</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="2:5">
       <c r="B107" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E107" t="s">
+        <v>80</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="2:5">
       <c r="B108" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E108" t="s">
+        <v>81</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="2:2">
       <c r="B109" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="3:3">
       <c r="C110" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="3:3">
-      <c r="C111" s="3" t="s">
-        <v>83</v>
+      <c r="C111" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="3:3">
-      <c r="C112" s="3" t="s">
-        <v>84</v>
+      <c r="C112" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="3:3">
-      <c r="C113" s="3" t="s">
-        <v>85</v>
+      <c r="C113" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="3:3">
-      <c r="C114" s="3" t="s">
-        <v>86</v>
+      <c r="C114" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="3:3">
-      <c r="C115" s="3" t="s">
-        <v>87</v>
+      <c r="C115" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="2:2">
       <c r="B116" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="3:3">
       <c r="C117" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="3:3">
       <c r="C118" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="3:3">
       <c r="C119" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="2:2">
       <c r="B120" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="2:2">
       <c r="B121" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="2:2">
       <c r="B122" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="2:2">
       <c r="B123" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="2:2">
       <c r="B124" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="2:2">
       <c r="B125" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:2">
       <c r="B126" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="2:2">
       <c r="B128" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="2:2">
       <c r="B129" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="2:2">
       <c r="B130" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="2:2">
       <c r="B131" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="2:2">
       <c r="B132" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="2:2">
       <c r="B133" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="2:2">
       <c r="B134" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:2">
       <c r="B136" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="2:2">
       <c r="B137" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:1">
       <c r="A139" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="2:5">
       <c r="B140" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E140" t="s">
+        <v>110</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="2:5">
       <c r="B141" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E141" t="s">
+        <v>111</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="2:5">
       <c r="B142" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E142" t="s">
+        <v>112</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="2:5">
       <c r="B143" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E143" t="s">
+        <v>113</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2380,410 +2399,410 @@
     </row>
     <row r="146" customHeight="1" spans="2:5">
       <c r="B146" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E146" t="s">
+        <v>114</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:5">
       <c r="B147" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E147" t="s">
+        <v>115</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="2:5">
       <c r="B148" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E148" t="s">
+        <v>116</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="2:5">
       <c r="B149" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E149" t="s">
+        <v>117</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="2:5">
       <c r="B150" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E150" t="s">
+        <v>118</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="2:5">
       <c r="B151" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E151" t="s">
+        <v>119</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:1">
       <c r="A153" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="2:5">
       <c r="B154" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E154" t="s">
+        <v>121</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="2:5">
       <c r="B156" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E156" t="s">
+        <v>122</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="2:5">
       <c r="B157" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E157" t="s">
+        <v>123</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="1:1">
       <c r="A159" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="2:5">
       <c r="B160" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E160" t="s">
+        <v>125</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="2:5">
       <c r="B161" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E161" t="s">
+        <v>126</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="2:5">
       <c r="B162" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E162" t="s">
+        <v>127</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="2:5">
       <c r="B163" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E163" t="s">
+        <v>128</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="2:5">
       <c r="B164" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E164" t="s">
+        <v>129</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="2:5">
       <c r="B165" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E165" t="s">
+        <v>130</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:1">
       <c r="A167" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="2:5">
       <c r="B168" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E168" t="s">
+        <v>132</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="2:2">
       <c r="B169" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="2:2">
       <c r="B171" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="2:2">
       <c r="B172" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="2:5">
       <c r="B174" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E174" t="s">
+        <v>136</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="2:5">
       <c r="B175" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E175" t="s">
+        <v>137</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="2:5">
       <c r="B177" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E177" t="s">
+        <v>138</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="178" customHeight="1" spans="2:2">
       <c r="B178" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="2:6">
       <c r="B179" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E179" t="s">
-        <v>1</v>
-      </c>
-      <c r="F179" s="4" t="s">
         <v>140</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="181" customHeight="1" spans="2:5">
       <c r="B181" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E181" t="s">
+        <v>142</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="2:5">
       <c r="B182" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E182" t="s">
+        <v>143</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="2:5">
       <c r="B183" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E183" t="s">
+        <v>144</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="2:5">
       <c r="B184" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E184" t="s">
+        <v>145</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="185" customHeight="1" spans="2:5">
       <c r="B185" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E185" t="s">
+        <v>146</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="2:2">
       <c r="B188" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="189" customHeight="1" spans="2:2">
       <c r="B189" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="2:2">
       <c r="B190" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="2:5">
       <c r="B191" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E191" t="s">
+        <v>150</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="2:2">
       <c r="B192" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="193" customHeight="1" spans="2:2">
       <c r="B193" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="2:5">
       <c r="B194" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E194" t="s">
+        <v>153</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="2:5">
       <c r="B195" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E195" t="s">
+        <v>154</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="2:2">
       <c r="B196" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="2:5">
       <c r="B198" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E198" t="s">
+        <v>156</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="2:5">
       <c r="B199" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E199" t="s">
+        <v>157</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="200" customHeight="1" spans="2:5">
       <c r="B200" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E200" t="s">
+        <v>158</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="2:5">
       <c r="B202" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E202" t="s">
+        <v>159</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="203" customHeight="1" spans="2:5">
       <c r="B203" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E203" t="s">
+        <v>160</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="2:5">
       <c r="B204" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E204" t="s">
+        <v>161</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="206" customHeight="1" spans="2:2">
       <c r="B206" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="2:5">
       <c r="B207" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E207" t="s">
+        <v>163</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="2:5">
       <c r="B208" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E208" t="s">
+        <v>164</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="209" customHeight="1" spans="2:2">
       <c r="B209" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="2:5">
       <c r="B211" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E211" t="s">
+        <v>166</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="212" customHeight="1" spans="2:5">
       <c r="B212" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E212" t="s">
+        <v>167</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="213" customHeight="1" spans="2:5">
       <c r="B213" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E213" t="s">
+        <v>168</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="214" customHeight="1" spans="2:6">
       <c r="B214" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1</v>
-      </c>
-      <c r="F214" t="s">
         <v>169</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="215" customHeight="1" spans="2:5">
       <c r="B215" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2791,7 +2810,7 @@
       <c r="B216" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2799,29 +2818,29 @@
       <c r="B217" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E217" t="s">
-        <v>1</v>
-      </c>
-      <c r="F217" t="s">
-        <v>169</v>
+      <c r="E217" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="218" customHeight="1" spans="2:6">
       <c r="B218" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E218" t="s">
-        <v>1</v>
-      </c>
-      <c r="F218" t="s">
-        <v>169</v>
+      <c r="E218" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="219" customHeight="1" spans="2:5">
       <c r="B219" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2829,7 +2848,7 @@
       <c r="B220" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2837,7 +2856,7 @@
       <c r="B221" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2845,66 +2864,66 @@
       <c r="B222" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E222" t="s">
-        <v>1</v>
-      </c>
-      <c r="F222" t="s">
-        <v>169</v>
+      <c r="E222" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="223" customHeight="1" spans="2:6">
       <c r="B223" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E223" t="s">
-        <v>1</v>
-      </c>
-      <c r="F223" t="s">
-        <v>169</v>
+      <c r="E223" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="224" customHeight="1" spans="2:6">
       <c r="B224" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E224" t="s">
-        <v>1</v>
-      </c>
-      <c r="F224" t="s">
-        <v>169</v>
+      <c r="E224" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="225" customHeight="1" spans="2:6">
       <c r="B225" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E225" t="s">
-        <v>1</v>
-      </c>
-      <c r="F225" t="s">
-        <v>169</v>
+      <c r="E225" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="226" customHeight="1" spans="2:6">
       <c r="B226" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E226" t="s">
-        <v>1</v>
-      </c>
-      <c r="F226" t="s">
-        <v>169</v>
+      <c r="E226" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="227" customHeight="1" spans="2:6">
       <c r="B227" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E227" t="s">
-        <v>1</v>
-      </c>
-      <c r="F227" t="s">
-        <v>169</v>
+      <c r="E227" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="228" customHeight="1" spans="2:2">
@@ -2916,11 +2935,11 @@
       <c r="B229" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E229" t="s">
-        <v>1</v>
-      </c>
-      <c r="F229" t="s">
-        <v>169</v>
+      <c r="E229" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="231" customHeight="1" spans="1:1">
@@ -2988,9 +3007,15 @@
         <v>197</v>
       </c>
     </row>
-    <row r="244" customHeight="1" spans="2:2">
+    <row r="244" customHeight="1" spans="2:6">
       <c r="B244" s="1" t="s">
         <v>198</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="246" customHeight="1" spans="2:2">
@@ -2998,9 +3023,15 @@
         <v>199</v>
       </c>
     </row>
-    <row r="248" customHeight="1" spans="2:2">
+    <row r="248" customHeight="1" spans="2:6">
       <c r="B248" s="1" t="s">
         <v>200</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="249" customHeight="1" spans="2:2">
@@ -3030,7 +3061,7 @@
     </row>
     <row r="255" customHeight="1" spans="1:1">
       <c r="A255" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="256" customHeight="1" spans="2:2">

--- a/Revisi Rapih.xlsx
+++ b/Revisi Rapih.xlsx
@@ -648,10 +648,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -676,8 +676,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,6 +721,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -707,52 +736,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,13 +755,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,9 +777,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -804,9 +798,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,6 +818,114 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -833,7 +941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,25 +953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,19 +971,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,7 +983,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,97 +995,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,71 +1020,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,147 +1047,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1262,7 +1262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,9 +1274,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1992,12 +1989,12 @@
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:3">
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="3:3">
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2231,27 +2228,27 @@
       </c>
     </row>
     <row r="111" customHeight="1" spans="3:3">
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="3:3">
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="3:3">
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="3:3">
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="3:3">
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2591,7 +2588,7 @@
       <c r="E179" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="F179" s="4" t="s">
         <v>141</v>
       </c>
     </row>

--- a/Revisi Rapih.xlsx
+++ b/Revisi Rapih.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="209">
   <si>
     <t>tambah penjualan, saat klik back, total direset</t>
   </si>
@@ -648,8 +648,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -676,14 +676,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -692,14 +684,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,6 +706,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -721,16 +721,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,33 +745,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -790,7 +767,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -798,15 +781,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,7 +821,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,7 +899,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,7 +959,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,151 +1001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,11 +1015,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,92 +1112,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1141,118 +1135,124 @@
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1602,8 +1602,8 @@
   <sheetPr/>
   <dimension ref="A3:F258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="60" customHeight="1" outlineLevelCol="5"/>
@@ -2637,14 +2637,26 @@
         <v>147</v>
       </c>
     </row>
-    <row r="189" customHeight="1" spans="2:2">
+    <row r="189" customHeight="1" spans="2:6">
       <c r="B189" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="190" customHeight="1" spans="2:2">
+      <c r="E189" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="2:6">
       <c r="B190" s="1" t="s">
         <v>149</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="2:5">

--- a/Revisi Rapih.xlsx
+++ b/Revisi Rapih.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="209">
   <si>
     <t>tambah penjualan, saat klik back, total direset</t>
   </si>
@@ -650,8 +650,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -676,8 +676,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,9 +713,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,17 +729,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -729,23 +743,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -762,20 +761,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,15 +783,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,7 +821,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,61 +971,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,85 +983,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,19 +995,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,6 +1012,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1026,26 +1035,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,9 +1056,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,6 +1076,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,142 +1117,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1602,8 +1602,8 @@
   <sheetPr/>
   <dimension ref="A3:F258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="F189" sqref="F189"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="60" customHeight="1" outlineLevelCol="5"/>
@@ -2272,14 +2272,26 @@
         <v>92</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="2:2">
+    <row r="120" customHeight="1" spans="2:6">
       <c r="B120" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="121" customHeight="1" spans="2:2">
+      <c r="E120" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="2:6">
       <c r="B121" s="1" t="s">
         <v>94</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="2:2">
@@ -2542,9 +2554,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="171" customHeight="1" spans="2:2">
+    <row r="171" customHeight="1" spans="2:6">
       <c r="B171" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="2:2">
@@ -2767,9 +2785,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" customHeight="1" spans="2:2">
+    <row r="209" customHeight="1" spans="2:6">
       <c r="B209" s="1" t="s">
         <v>165</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="2:5">

--- a/Revisi Rapih.xlsx
+++ b/Revisi Rapih.xlsx
@@ -648,10 +648,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -677,6 +677,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -693,7 +701,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,33 +721,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -751,16 +737,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,6 +776,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -797,9 +791,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,37 +821,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +869,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,19 +965,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,103 +1001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,6 +1012,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1065,6 +1080,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1088,171 +1112,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1602,8 +1602,8 @@
   <sheetPr/>
   <dimension ref="A3:F258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="F253" sqref="F253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="60" customHeight="1" outlineLevelCol="5"/>

--- a/Revisi Rapih.xlsx
+++ b/Revisi Rapih.xlsx
@@ -650,8 +650,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -677,8 +677,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,69 +707,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,8 +723,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,11 +753,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -798,8 +775,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,31 +827,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +881,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,19 +905,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,43 +977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,31 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,19 +1001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,6 +1039,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1069,26 +1089,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1117,142 +1117,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1602,8 +1602,8 @@
   <sheetPr/>
   <dimension ref="A3:F258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="F253" sqref="F253"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="60" customHeight="1" outlineLevelCol="5"/>

--- a/Revisi Rapih.xlsx
+++ b/Revisi Rapih.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="209">
   <si>
     <t>tambah penjualan, saat klik back, total direset</t>
   </si>
@@ -648,10 +648,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -676,8 +676,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -693,7 +722,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,52 +768,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,15 +782,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -785,9 +792,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -799,14 +806,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,13 +821,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,31 +839,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,7 +875,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,7 +899,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,13 +947,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,67 +989,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,6 +1012,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1026,35 +1035,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,6 +1086,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1117,142 +1117,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1602,8 +1602,8 @@
   <sheetPr/>
   <dimension ref="A3:F258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="60" customHeight="1" outlineLevelCol="5"/>
@@ -1780,14 +1780,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="2:2">
+    <row r="28" customHeight="1" spans="2:6">
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="2:2">
+      <c r="E28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:6">
       <c r="B29" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:1">
